--- a/GestionPf/éléments de corrigés exercices.xlsx
+++ b/GestionPf/éléments de corrigés exercices.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18990" windowHeight="7995" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18990" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="exercice 1" sheetId="8" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -751,14 +751,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,9 +1184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1355,6 +1352,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,20 +1392,37 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1457,44 +1504,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="150110976"/>
-        <c:axId val="150112512"/>
+        <c:smooth val="0"/>
+        <c:axId val="173032192"/>
+        <c:axId val="173033728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150110976"/>
+        <c:axId val="173032192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150112512"/>
+        <c:crossAx val="173033728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150112512"/>
+        <c:axId val="173033728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150110976"/>
+        <c:crossAx val="173032192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1506,8 +1572,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1522,6 +1599,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1600,44 +1678,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="150210432"/>
-        <c:axId val="150211968"/>
+        <c:smooth val="0"/>
+        <c:axId val="173062400"/>
+        <c:axId val="173064192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150210432"/>
+        <c:axId val="173062400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150211968"/>
+        <c:crossAx val="173064192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150211968"/>
+        <c:axId val="173064192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150210432"/>
+        <c:crossAx val="173062400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1649,8 +1746,19 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1665,6 +1773,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1796,40 +1905,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="150813312"/>
-        <c:axId val="150819200"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174440832"/>
+        <c:axId val="174442368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150813312"/>
+        <c:axId val="174440832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150819200"/>
+        <c:crossAx val="174442368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150819200"/>
+        <c:axId val="174442368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150813312"/>
+        <c:crossAx val="174440832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3054,6 +3179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3088,6 +3214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3263,19 +3390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:G18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -3283,7 +3410,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -3291,7 +3418,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -3306,7 +3433,7 @@
         <v>-0.52631578947368418</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3448,7 @@
         <v>6.8421052631578947</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -3329,7 +3456,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3337,7 +3464,7 @@
         <v>0.66666666666693164</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3473,7 @@
         <v>0.33333333333306836</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +3482,7 @@
         <v>0.20000000000003976</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>183</v>
       </c>
@@ -3364,7 +3491,7 @@
         <v>1.9298245614015566</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>184</v>
       </c>
@@ -3379,34 +3506,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:4">
-      <c r="A2" s="91" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3420,7 +3547,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3434,7 +3561,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3448,7 +3575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3462,31 +3589,31 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="51">
         <v>1E-3</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>0.04</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -3497,7 +3624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3637,7 @@
         <v>3.2528159999999993E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3650,7 @@
         <v>7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -3536,7 +3663,7 @@
         <v>4.7840000000000018E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -3544,7 +3671,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3680,7 @@
         <v>0.7496299728448873</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3562,7 +3689,7 @@
         <v>1.2719210763254423</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -3574,25 +3701,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -3604,7 +3731,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -3613,7 +3740,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -3622,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>130</v>
       </c>
@@ -3630,7 +3757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>188</v>
       </c>
@@ -3638,7 +3765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3647,16 +3774,16 @@
         <v>5.57E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="79">
         <f>B11-2%</f>
         <v>3.5699999999999996E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>132</v>
       </c>
@@ -3664,7 +3791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3678,7 +3805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3693,7 +3820,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -3709,7 +3836,7 @@
         <v>5.0420168067226892E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -3720,22 +3847,22 @@
         <f>D19*B19</f>
         <v>0.11492042016806724</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="79">
         <f>D18+3%</f>
         <v>8.0420168067226891E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -3747,16 +3874,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="79">
         <f>C19+2%-2%-1.429*5%</f>
         <v>4.3470420168067236E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>217</v>
       </c>
@@ -3768,51 +3895,51 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11">
-      <c r="A2" s="91" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="92" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3841,7 +3968,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3870,7 +3997,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3899,7 +4026,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3928,88 +4055,88 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="51">
         <v>0.12</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>0.11</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>2E-3</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>0.05</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <v>0.18</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <v>0.49</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="99" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="60"/>
       <c r="K10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="100" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="94">
         <f>AVERAGE(D3:D7)</f>
         <v>0.15040000000000001</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C11" s="94">
         <f>SQRT(VARP(D3:D7))</f>
         <v>0.15811590685316892</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="94">
         <f>COVAR(D3:D7,$B$3:$B$7)</f>
         <v>1.4480400000000001E-2</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="94">
         <f>D11/VARP($B$3:$B$7)</f>
         <v>1.2309078544712673</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="95">
         <f>5%+E11*($B$17-5%)</f>
         <v>0.1964780346820808</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="93">
         <f>(B11-5%)/C11</f>
         <v>0.63497722650532806</v>
       </c>
@@ -4017,208 +4144,208 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="100" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="94">
         <f>AVERAGE(E3:E7)</f>
         <v>0.16</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="94">
         <f>SQRT(VARP(E3:E7))</f>
         <v>9.6953597148326576E-2</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="94">
         <f>COVAR(E3:E7,$B$3:$B$7)</f>
         <v>6.4599999999999987E-3</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="94">
         <f t="shared" ref="E12:E17" si="0">D12/VARP($B$3:$B$7)</f>
         <v>0.54913294797687806</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="95">
         <f t="shared" ref="F12:F16" si="1">5%+E12*($B$17-5%)</f>
         <v>0.11534682080924848</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="93">
         <f t="shared" ref="H12:H16" si="2">(B12-5%)/C12</f>
         <v>1.1345633708846727</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="100" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="94">
         <f>AVERAGE(F3:F7)</f>
         <v>0.16400000000000001</v>
       </c>
-      <c r="C13" s="95">
+      <c r="C13" s="94">
         <f>SQRT(VARP(F3:F7))</f>
         <v>7.0028565600046333E-2</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="94">
         <f>COVAR(F3:F7,$B$3:$B$7)</f>
         <v>-7.306E-3</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="94">
         <f t="shared" si="0"/>
         <v>-0.62104726283576961</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="95">
         <f t="shared" si="1"/>
         <v>-2.3904624277456571E-2</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="93">
         <f t="shared" si="2"/>
         <v>1.6279071122359898</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <f>AVERAGE(G3:G7)</f>
         <v>0.1202</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="94">
         <f>SQRT(VARP(G3:G7))</f>
         <v>0.12422624521412533</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="94">
         <f>COVAR(G3:G7,$B$3:$B$7)</f>
         <v>3.660200000000001E-3</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="94">
         <f t="shared" si="0"/>
         <v>0.3111356681400882</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="95">
         <f t="shared" si="1"/>
         <v>8.7025144508670493E-2</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="93">
         <f t="shared" si="2"/>
         <v>0.56509797812047047</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="100" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="94">
         <f>AVERAGE(H3:H7)</f>
         <v>0.28179999999999999</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="94">
         <f>SQRT(VARP(H3:H7))</f>
         <v>0.17956881689202053</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="94">
         <f>COVAR(H3:H7,$B$3:$B$7)</f>
         <v>1.1288800000000002E-2</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="94">
         <f t="shared" si="0"/>
         <v>0.95960557633457932</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="95">
         <f t="shared" si="1"/>
         <v>0.16419306358381491</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="93">
         <f t="shared" si="2"/>
         <v>1.2908700074545096</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <f>AVERAGE(I3:I7)</f>
         <v>0.11640000000000002</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="94">
         <f>SQRT(VARP(I3:I7))</f>
         <v>6.0098585673874202E-2</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <f>COVAR(I3:I7,$B$3:$B$7)</f>
         <v>1.6424E-3</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="94">
         <f t="shared" si="0"/>
         <v>0.13961237674260443</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="95">
         <f t="shared" si="1"/>
         <v>6.6613872832369928E-2</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="93">
         <f t="shared" si="2"/>
         <v>1.1048512915149205</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A17" s="101" t="s">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="96">
         <f>AVERAGE(B3:B7)</f>
         <v>0.16899999999999998</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="96">
         <f>SQRT(VARP(B3:B7))</f>
         <v>0.10846197490365003</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="96">
         <f>COVAR(B3:B7,$B$3:$B$7)</f>
         <v>1.1764E-2</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="96">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="H17" s="94"/>
+      <c r="F17" s="97"/>
+      <c r="H17" s="93"/>
       <c r="K17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H18" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
-      <c r="H19" s="94">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="93">
         <f t="shared" ref="H19:H24" si="3">(B11-5%)/E11</f>
         <v>8.1565813099085727E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A20" s="99" t="s">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="93">
         <f t="shared" si="3"/>
         <v>0.20031578947368442</v>
       </c>
@@ -4226,168 +4353,168 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="100" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="94">
         <f>AVERAGE(D3:D7)</f>
         <v>0.15040000000000001</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="94">
         <f>SQRT(VARP(D3:D7))</f>
         <v>0.15811590685316892</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="94">
         <f>COVAR(D3:D7,$C$3:$C$7)</f>
         <v>1.19448E-2</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="94">
         <f>D21/VARP($C$3:$C$7)</f>
         <v>1.4538461538461562</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="95">
         <f>5%+E21*($B$27-5%)</f>
         <v>0.19247692307692332</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="93">
         <f t="shared" si="3"/>
         <v>-0.18356090884204779</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="94">
         <f>AVERAGE(E3:E7)</f>
         <v>0.16</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="94">
         <f>SQRT(VARP(E3:E7))</f>
         <v>9.6953597148326576E-2</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="94">
         <f>COVAR(E3:E7,$C$3:$C$7)</f>
         <v>8.0199999999999994E-3</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="94">
         <f t="shared" ref="E22:E27" si="4">D22/VARP($C$3:$C$7)</f>
         <v>0.97614410905550286</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="95">
         <f t="shared" ref="F22:F26" si="5">5%+E22*($B$27-5%)</f>
         <v>0.1456621226874393</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="93">
         <f t="shared" si="3"/>
         <v>0.22562504781159515</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="100" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="94">
         <f>AVERAGE(F3:F7)</f>
         <v>0.16400000000000001</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="94">
         <f>SQRT(VARP(F3:F7))</f>
         <v>7.0028565600046333E-2</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="94">
         <f>COVAR(F3:F7,$C$3:$C$7)</f>
         <v>-3.9120000000000005E-3</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="94">
         <f t="shared" si="4"/>
         <v>-0.47614410905550225</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="95">
         <f t="shared" si="5"/>
         <v>3.3378773125607719E-3</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="93">
         <f t="shared" si="3"/>
         <v>0.24155757919353715</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="94">
         <f>AVERAGE(G3:G7)</f>
         <v>0.1202</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="94">
         <f>SQRT(VARP(G3:G7))</f>
         <v>0.12422624521412533</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="94">
         <f>COVAR(G3:G7,$C$3:$C$7)</f>
         <v>1.0312399999999999E-2</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E24" s="94">
         <f t="shared" si="4"/>
         <v>1.2551606621226894</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="95">
         <f t="shared" si="5"/>
         <v>0.17300574488802359</v>
       </c>
-      <c r="H24" s="94">
+      <c r="H24" s="93">
         <f t="shared" si="3"/>
         <v>0.47560253287871462</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="94">
         <f>AVERAGE(H3:H7)</f>
         <v>0.28179999999999999</v>
       </c>
-      <c r="C25" s="95">
+      <c r="C25" s="94">
         <f>SQRT(VARP(H3:H7))</f>
         <v>0.17956881689202053</v>
       </c>
-      <c r="D25" s="95">
+      <c r="D25" s="94">
         <f>COVAR(H3:H7,$C$3:$C$7)</f>
         <v>7.4215999999999987E-3</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E25" s="94">
         <f t="shared" si="4"/>
         <v>0.90331061343719699</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="95">
         <f t="shared" si="5"/>
         <v>0.13852444011684534</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="100" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="95">
+      <c r="B26" s="94">
         <f>AVERAGE(I3:I7)</f>
         <v>0.11640000000000002</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="94">
         <f>SQRT(VARP(I3:I7))</f>
         <v>6.0098585673874202E-2</v>
       </c>
-      <c r="D26" s="95">
+      <c r="D26" s="94">
         <f>COVAR(I3:I7,$C$3:$C$7)</f>
         <v>2.1768000000000004E-3</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="94">
         <f t="shared" si="4"/>
         <v>0.26494644595910466</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="95">
         <f t="shared" si="5"/>
         <v>7.5964751703992264E-2</v>
       </c>
@@ -4395,28 +4522,28 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A27" s="101" t="s">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="96">
         <f>AVERAGE(C3:C7)</f>
         <v>0.14800000000000002</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="96">
         <f>SQRT(VARP(C3:C7))</f>
         <v>9.0642153548997212E-2</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="96">
         <f>COVAR(C3:C7,$C$3:$C$7)</f>
         <v>8.2159999999999976E-3</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="96">
         <f t="shared" si="4"/>
         <v>1.0000000000000013</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="H27" s="102">
+      <c r="F27" s="97"/>
+      <c r="H27" s="101">
         <f>B11-F11</f>
         <v>-4.6078034682080798E-2</v>
       </c>
@@ -4424,8 +4551,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="H28" s="94">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="93">
         <f t="shared" ref="H28:H31" si="6">B12-F12</f>
         <v>4.4653179190751527E-2</v>
       </c>
@@ -4433,52 +4560,52 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="H29" s="94">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="93">
         <f t="shared" si="6"/>
         <v>0.18790462427745658</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="H30" s="94">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="93">
         <f t="shared" si="6"/>
         <v>3.3174855491329508E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="H31" s="94">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="93">
         <f t="shared" si="6"/>
         <v>0.11760693641618508</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="H32" s="94">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="93">
         <f>B16-F16</f>
         <v>4.978612716763009E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="100" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="99" t="s">
         <v>148</v>
       </c>
       <c r="B38">
@@ -4486,8 +4613,8 @@
         <v>0.56509797812047047</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="100" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="99" t="s">
         <v>149</v>
       </c>
       <c r="B39">
@@ -4498,8 +4625,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="99" t="s">
         <v>150</v>
       </c>
       <c r="B40">
@@ -4507,18 +4634,18 @@
         <v>1.1048512915149205</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="100" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="99" t="s">
         <v>148</v>
       </c>
       <c r="B47">
@@ -4526,17 +4653,17 @@
         <v>5.5929095070012709E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="100" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="103">
+      <c r="B48" s="102">
         <f t="shared" ref="B48:B49" si="8">(B25-5%)/E25</f>
         <v>0.2566116201358194</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="100" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="99" t="s">
         <v>150</v>
       </c>
       <c r="B49">
@@ -4544,25 +4671,25 @@
         <v>0.25061668504226348</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="106" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="105" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="61" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="94">
+      <c r="B53" s="93">
         <f>B21-F21</f>
         <v>-4.2076923076923317E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="61" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="94">
+      <c r="B54" s="93">
         <f t="shared" ref="B54:B55" si="9">B22-F22</f>
         <v>1.4337877312560698E-2</v>
       </c>
@@ -4570,11 +4697,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="61" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="94">
+      <c r="B55" s="93">
         <f t="shared" si="9"/>
         <v>0.16066212268743923</v>
       </c>
@@ -4586,19 +4713,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +4748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -4649,17 +4776,17 @@
       <c r="J3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="103">
         <f>IRR(B5:H5)</f>
-        <v>0.12961676850112194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.12961676850112425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>SUM(B3:B4)</f>
         <v>-100000</v>
@@ -4689,7 +4816,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4697,7 +4824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4705,7 +4832,7 @@
         <v>-0.18459999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4713,7 +4840,7 @@
         <v>0.70589999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4721,7 +4848,7 @@
         <v>-0.20419999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4729,7 +4856,7 @@
         <v>7.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4737,7 +4864,7 @@
         <v>-5.96E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4745,78 +4872,78 @@
         <v>0.59340000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>AVERAGE(B7:B12)</f>
         <v>0.15359999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="79">
         <f>K3</f>
-        <v>0.12961676850112194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.12961676850112425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <f>B13-C19</f>
-        <v>2.3983231498878044E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2.398323149887574E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>1/6*((B7-C19)^2+(B9-C19)^2+(B10-C19)^2+(B11-C19)^2)</f>
-        <v>4.1573330605406869E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>4.1573330605407556E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>C21/SQRT(A24)</f>
-        <v>0.11762517702090398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.11762517702089173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -4828,19 +4955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>51</v>
       </c>
@@ -4851,7 +4978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -4862,18 +4989,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="79">
         <v>0.13800000000000001</v>
       </c>
       <c r="F3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>174</v>
       </c>
@@ -4884,12 +5011,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +5025,7 @@
         <v>1.1333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4910,22 +5037,22 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -4939,7 +5066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +5083,7 @@
         <v>5.7500000000000023E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4972,12 +5099,12 @@
         <v>4.0500000000000008E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4991,7 +5118,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -5006,7 +5133,7 @@
         <v>7.5338999999999989E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -5028,16 +5155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5057,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5072,16 +5199,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-    </row>
-    <row r="8" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -5090,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -5110,7 +5237,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5125,7 +5252,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -5140,26 +5267,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="11.42578125" style="14"/>
     <col min="9" max="9" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
@@ -5168,7 +5295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -5189,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
@@ -5209,7 +5336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <f>(200/2)/C11</f>
         <v>2</v>
@@ -5235,7 +5362,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="17" t="s">
         <v>0</v>
@@ -5254,7 +5381,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="2:10" ht="75">
+    <row r="9" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -5281,7 +5408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
@@ -5292,156 +5419,162 @@
       <c r="I10" s="1"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>39172</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="111">
         <v>50</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="1">
+      <c r="D11" s="112"/>
+      <c r="E11" s="111">
         <v>20</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="6">
+      <c r="F11" s="112"/>
+      <c r="G11" s="113">
         <v>60</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="1">
+      <c r="H11" s="114"/>
+      <c r="I11" s="111">
         <v>200</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>39202</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="111">
         <v>60</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="112">
         <f>(C12-C11)/C11</f>
         <v>0.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="111">
         <v>20.6</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="112">
         <f>(E12-E11)/E11</f>
         <v>3.0000000000000072E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="113">
         <v>54</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="112">
         <f>(G12-G11)/G11</f>
         <v>-0.1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="111">
         <f>I11*(1+J12)</f>
         <v>216.5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="108">
         <f>$F$6*D12+$G$6*F12+$H$6*H12</f>
         <v>8.2500000000000018E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>39233</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="111">
         <v>78</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="112">
         <f t="shared" ref="D13:D14" si="0">(C13-C12)/C12</f>
         <v>0.3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="111">
         <v>21.321000000000002</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="112">
         <f t="shared" ref="F13:F14" si="1">(E13-E12)/E12</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="113">
         <v>48.06</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="112">
         <f t="shared" ref="H13:H14" si="2">(G13-G12)/G12</f>
         <v>-0.10999999999999996</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="111">
         <f>I12*(1+J13)</f>
         <v>244.91562500000001</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="108">
         <f>$F$6*D13+$G$6*F13+$H$6*H13</f>
         <v>0.13125000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
         <v>39263</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="115">
         <v>74.099999999999994</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="116">
         <f t="shared" si="0"/>
         <v>-5.0000000000000072E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="115">
         <v>21.107790000000001</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="116">
         <f t="shared" si="1"/>
         <v>-1.0000000000000005E-2</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="117">
         <v>49.501800000000003</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="116">
         <f t="shared" si="2"/>
         <v>3.0000000000000013E-2</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="118">
         <f>I13*(1+J14)</f>
         <v>240.0173125</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="108">
         <f>$F$6*D14+$G$6*F14+$H$6*H14</f>
         <v>-2.0000000000000035E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="D15" s="40">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="109">
         <f>AVERAGE(D12:D14)</f>
         <v>0.15</v>
       </c>
-      <c r="F15" s="40">
+      <c r="E15" s="107"/>
+      <c r="F15" s="109">
         <f>AVERAGE(F12:F14)</f>
         <v>1.8333333333333354E-2</v>
       </c>
-      <c r="H15" s="40">
+      <c r="G15" s="107"/>
+      <c r="H15" s="109">
         <f>AVERAGE(H12:H14)</f>
         <v>-5.9999999999999977E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="11">
+      <c r="D18" s="107"/>
+      <c r="E18" s="110">
         <f>(I14-I11)/I11</f>
         <v>0.20008656250000001</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="107"/>
+      <c r="G18" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="11">
+      <c r="H18" s="106"/>
+      <c r="I18" s="110">
         <f>(1+J12)*(1+J13)*(1+J14)-1</f>
         <v>0.20008656250000012</v>
       </c>
@@ -5452,14 +5585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="11.42578125" style="14"/>
     <col min="9" max="9" width="11.42578125" style="14"/>
@@ -5467,13 +5600,13 @@
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
@@ -5482,7 +5615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
@@ -5523,7 +5656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <f>(200/2)/C11</f>
         <v>2</v>
@@ -5549,7 +5682,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="17" t="s">
         <v>0</v>
@@ -5567,19 +5700,19 @@
         <v>24</v>
       </c>
       <c r="J8" s="30"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="43"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="2:17" ht="75">
+    <row r="9" spans="2:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -5605,29 +5738,29 @@
       <c r="J9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
@@ -5645,7 +5778,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>39172</v>
       </c>
@@ -5673,7 +5806,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>39202</v>
       </c>
@@ -5735,7 +5868,7 @@
         <v>0.20785219399538107</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>39233</v>
       </c>
@@ -5797,7 +5930,7 @@
         <v>0.16061599542815894</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
         <v>39263</v>
       </c>
@@ -5826,40 +5959,40 @@
         <f>I13*(1+J14)</f>
         <v>242.22097500000001</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="47">
         <f>O13*D14+P13*F14+Q13*H14</f>
         <v>-2.8600174451830288E-2</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <f t="shared" si="3"/>
         <v>148.19999999999999</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <f t="shared" si="4"/>
         <v>52.769475</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <f t="shared" si="5"/>
         <v>41.251500000000007</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="50">
         <f t="shared" si="6"/>
         <v>242.22097500000001</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="49">
         <f t="shared" si="7"/>
         <v>0.61183801278976757</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="49">
         <f>L14/N14</f>
         <v>0.21785675249635172</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="50">
         <f t="shared" si="8"/>
         <v>0.17030523471388059</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
         <v>26</v>
@@ -5875,40 +6008,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5931,7 +6064,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5954,7 +6087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5977,7 +6110,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -6000,31 +6133,31 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="51">
         <v>0.15</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>0.22</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>0.06</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <v>0.1</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1"/>
-    <row r="10" spans="1:7" s="21" customFormat="1">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>59</v>
@@ -6039,7 +6172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1">
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -6060,7 +6193,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1">
+    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -6081,7 +6214,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -6102,7 +6235,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
+    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -6123,7 +6256,7 @@
         <v>-6.0000000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1">
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -6144,28 +6277,28 @@
         <v>6.0000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1">
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <f>AVERAGE(B11:B15)</f>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <f t="shared" ref="C16:E16" si="3">AVERAGE(C11:C15)</f>
         <v>0.126</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="60">
         <f t="shared" si="3"/>
         <v>5.0839999999999996E-2</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <f t="shared" si="3"/>
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -6173,7 +6306,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>64</v>
       </c>
@@ -6181,7 +6314,7 @@
         <v>3.0238999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>65</v>
       </c>
@@ -6190,7 +6323,7 @@
         <v>-0.36520000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -6207,213 +6340,213 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="70" customFormat="1">
-      <c r="A1" s="70">
+    <row r="1" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69">
         <v>1990</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="70" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:8" s="70" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="71" t="s">
+    <row r="2" spans="1:8" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="73" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="70" customFormat="1">
-      <c r="A4" s="75">
+    <row r="4" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="73">
         <v>1.2E-2</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="73">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="73">
         <v>0.03</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="75">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="70" customFormat="1">
-      <c r="A5" s="75">
+    <row r="5" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
         <v>2</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="73">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="73">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="73">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="70" customFormat="1">
-      <c r="A6" s="75">
+    <row r="6" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
         <v>3</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="73">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="73">
         <v>-2.3E-2</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="70" customFormat="1">
-      <c r="A7" s="75">
+    <row r="7" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <v>4</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="73">
         <v>2E-3</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>2E-3</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="73">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="70" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="77">
+    <row r="8" spans="1:8" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <v>2E-3</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="77">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="77">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="78">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="70" customFormat="1">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="69">
         <f>AVERAGE(B4:B8)</f>
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="69">
         <f t="shared" ref="C9:E9" si="0">AVERAGE(C4:C8)</f>
         <v>7.1999999999999981E-3</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <f t="shared" si="0"/>
         <v>1.26E-2</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="69">
         <f t="shared" si="0"/>
         <v>1.54E-2</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <f>AVERAGE(F4:F8)</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="69">
         <v>1.057E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
-      <c r="A10" s="63">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
         <v>1991</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B12" s="64" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B13" s="67">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="66">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="67">
         <v>1.6E-2</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>1.2E-2</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <v>1.4E-2</v>
       </c>
       <c r="H13" s="2">
@@ -6421,13 +6554,13 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1"/>
-    <row r="17" spans="1:11">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -6442,22 +6575,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -6465,7 +6598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -6473,7 +6606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -6481,27 +6614,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -6509,7 +6642,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -6517,7 +6650,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -6525,7 +6658,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -6533,29 +6666,29 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>B32*C13+B33*D13+B34*E13+B35*F13</f>
         <v>1.136E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="80">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
         <f>1.2%-1.136%</f>
         <v>6.4000000000000168E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -6567,14 +6700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H40"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -6583,39 +6716,39 @@
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="54" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>-5</v>
       </c>
@@ -6627,7 +6760,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>-4</v>
       </c>
@@ -6658,7 +6791,7 @@
         <v>1.3081718181818183E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>-3</v>
       </c>
@@ -6689,7 +6822,7 @@
         <v>1.621299073083779E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>-2</v>
       </c>
@@ -6720,7 +6853,7 @@
         <v>1.5321616853595791E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>-1</v>
       </c>
@@ -6751,7 +6884,7 @@
         <v>2.0676868862139288E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0</v>
       </c>
@@ -6782,7 +6915,7 @@
         <v>2.2205352478257046E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -6813,7 +6946,7 @@
         <v>1.9161671120938976E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -6844,7 +6977,7 @@
         <v>1.7649474445684404E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -6875,7 +7008,7 @@
         <v>1.5176697470226893E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -6906,32 +7039,32 @@
         <v>1.2071974974078973E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="51">
         <v>266</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="52">
         <v>1337</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A24" s="54" t="s">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>-5</v>
       </c>
@@ -6939,7 +7072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>-4</v>
       </c>
@@ -6947,7 +7080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>-3</v>
       </c>
@@ -6955,7 +7088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>-2</v>
       </c>
@@ -6963,7 +7096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>-1</v>
       </c>
@@ -6971,7 +7104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -6979,7 +7112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -6987,7 +7120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -6995,7 +7128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -7003,7 +7136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -7011,25 +7144,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>5</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="52">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -7041,21 +7174,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>89</v>
       </c>
@@ -7075,14 +7208,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>54</v>
       </c>
       <c r="I4">
@@ -7100,7 +7233,7 @@
         <f>J4*$B$5+K4*$B$6</f>
         <v>0.28300000000000003</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="84">
         <f>SQRT((J4^2*$C$5^2)+(K4^2*$C$6^2)+(2*J4*K4*$C$5*$C$6*0))</f>
         <v>0.24619707553096565</v>
       </c>
@@ -7109,14 +7242,14 @@
         <v>0.84485162771090128</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <v>0.13</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <v>0.09</v>
       </c>
       <c r="I5">
@@ -7134,7 +7267,7 @@
         <f t="shared" ref="L5:L21" si="1">J5*$B$5+K5*$B$6</f>
         <v>0.27400000000000002</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="84">
         <f t="shared" ref="M5:M21" si="2">SQRT((J5^2*$C$5^2)+(K5^2*$C$6^2)+(2*J5*K5*$C$5*$C$6*0))</f>
         <v>0.23041701326073996</v>
       </c>
@@ -7143,14 +7276,14 @@
         <v>0.86365150378375732</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>0.22</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>0.14000000000000001</v>
       </c>
       <c r="I6">
@@ -7168,7 +7301,7 @@
         <f t="shared" si="1"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="84">
         <f t="shared" si="2"/>
         <v>0.2147673159491453</v>
       </c>
@@ -7177,14 +7310,14 @@
         <v>0.8846783746414657</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="58">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>0</v>
       </c>
       <c r="I7">
@@ -7202,7 +7335,7 @@
         <f t="shared" si="1"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="84">
         <f t="shared" si="2"/>
         <v>0.19927869931329839</v>
       </c>
@@ -7211,7 +7344,7 @@
         <v>0.90827569942856101</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I8">
         <v>5</v>
       </c>
@@ -7227,7 +7360,7 @@
         <f t="shared" si="1"/>
         <v>0.24700000000000003</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="84">
         <f t="shared" si="2"/>
         <v>0.18399184764548676</v>
       </c>
@@ -7236,7 +7369,7 @@
         <v>0.93482402726564029</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>6</v>
       </c>
@@ -7252,7 +7385,7 @@
         <f t="shared" si="1"/>
         <v>0.23800000000000002</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <f t="shared" si="2"/>
         <v>0.16896153408394468</v>
       </c>
@@ -7261,7 +7394,7 @@
         <v>0.96471661957695776</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>7</v>
       </c>
@@ -7277,7 +7410,7 @@
         <f t="shared" si="1"/>
         <v>0.22900000000000001</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="84">
         <f t="shared" si="2"/>
         <v>0.15426276284314375</v>
       </c>
@@ -7286,7 +7419,7 @@
         <v>0.99829665410951507</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>8</v>
       </c>
@@ -7302,7 +7435,7 @@
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="84">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
@@ -7311,7 +7444,7 @@
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>9</v>
       </c>
@@ -7327,7 +7460,7 @@
         <f t="shared" si="1"/>
         <v>0.21100000000000002</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="84">
         <f t="shared" si="2"/>
         <v>0.12632101962856382</v>
       </c>
@@ -7336,7 +7469,7 @@
         <v>1.0766220887061901</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>10</v>
       </c>
@@ -7352,7 +7485,7 @@
         <f t="shared" si="1"/>
         <v>0.20200000000000001</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="84">
         <f t="shared" si="2"/>
         <v>0.11343720729989788</v>
       </c>
@@ -7361,7 +7494,7 @@
         <v>1.1195621174298278</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I14">
         <v>11</v>
       </c>
@@ -7377,7 +7510,7 @@
         <f t="shared" si="1"/>
         <v>0.193</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="84">
         <f t="shared" si="2"/>
         <v>0.10165136496870074</v>
       </c>
@@ -7386,7 +7519,7 @@
         <v>1.1608304525604072</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>12</v>
       </c>
@@ -7402,7 +7535,7 @@
         <f t="shared" si="1"/>
         <v>0.184</v>
       </c>
-      <c r="M15" s="85">
+      <c r="M15" s="84">
         <f t="shared" si="2"/>
         <v>9.1389277270366914E-2</v>
       </c>
@@ -7411,32 +7544,32 @@
         <v>1.1927000984758129</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="I16" s="70">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="69">
         <v>13</v>
       </c>
-      <c r="J16" s="70">
+      <c r="J16" s="69">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="69">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="69">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="M16" s="86">
+      <c r="M16" s="85">
         <f t="shared" si="2"/>
         <v>8.3216584885466197E-2</v>
       </c>
-      <c r="N16" s="70">
+      <c r="N16" s="69">
         <f t="shared" si="3"/>
         <v>1.2016835362522191</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>14</v>
       </c>
@@ -7452,7 +7585,7 @@
         <f t="shared" si="1"/>
         <v>0.16600000000000001</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="84">
         <f t="shared" si="2"/>
         <v>7.7794601355106907E-2</v>
       </c>
@@ -7461,7 +7594,7 @@
         <v>1.1697469800586133</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>15</v>
       </c>
@@ -7477,7 +7610,7 @@
         <f t="shared" si="1"/>
         <v>0.15700000000000003</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M18" s="84">
         <f t="shared" si="2"/>
         <v>7.5716576784743778E-2</v>
       </c>
@@ -7486,7 +7619,7 @@
         <v>1.0829860973921144</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>16</v>
       </c>
@@ -7502,7 +7635,7 @@
         <f t="shared" si="1"/>
         <v>0.14800000000000002</v>
       </c>
-      <c r="M19" s="85">
+      <c r="M19" s="84">
         <f t="shared" si="2"/>
         <v>7.7252831663311858E-2</v>
       </c>
@@ -7511,7 +7644,7 @@
         <v>0.94494918086825874</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>17</v>
       </c>
@@ -7527,7 +7660,7 @@
         <f t="shared" si="1"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="M20" s="85">
+      <c r="M20" s="84">
         <f t="shared" si="2"/>
         <v>8.2200973230248303E-2</v>
       </c>
@@ -7536,7 +7669,7 @@
         <v>0.77857958957168771</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>18</v>
       </c>
@@ -7552,7 +7685,7 @@
         <f t="shared" si="1"/>
         <v>0.12999999999999998</v>
       </c>
-      <c r="M21" s="85">
+      <c r="M21" s="84">
         <f t="shared" si="2"/>
         <v>8.9999999999999983E-2</v>
       </c>
@@ -7561,37 +7694,37 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>212</v>
       </c>
@@ -7600,102 +7733,102 @@
         <v>0.15934000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="61" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="69" t="s">
         <v>57</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="69">
         <v>0.13500000000000001</v>
       </c>
       <c r="C43">
         <v>0.13</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="69">
         <v>0.185</v>
       </c>
       <c r="E43">
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="69">
         <v>0.13</v>
       </c>
       <c r="C44">
         <v>0.09</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="69">
         <v>0.23</v>
       </c>
       <c r="E44">
         <v>0.245</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="69">
         <v>0.125</v>
       </c>
       <c r="C45">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="69">
         <v>0.23499999999999999</v>
       </c>
       <c r="E45">
         <v>0.251</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="70">
+      <c r="B46" s="69">
         <v>0.11</v>
       </c>
       <c r="C46">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="69">
         <v>0.245</v>
       </c>
       <c r="E46">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="69">
         <v>0.1</v>
       </c>
       <c r="C47">
         <v>7.8E-2</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="69">
         <v>0.3175</v>
       </c>
       <c r="E47">
@@ -7705,11 +7838,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="69">
         <f>STDEVP(B43:B47)</f>
         <v>1.303840481040526E-2</v>
       </c>
@@ -7717,7 +7850,7 @@
         <f>STDEVP(C43:C47)</f>
         <v>1.9051509126575772E-2</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="69">
         <f>STDEVP(D43:D47)</f>
         <v>4.2778499272414956E-2</v>
       </c>
@@ -7726,11 +7859,11 @@
         <v>6.7230945255886505E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="69">
         <f>COVAR(B43:B47,B53:B57)/(B48*B58)</f>
         <v>0.90536973542424271</v>
       </c>
@@ -7738,7 +7871,7 @@
         <f>COVAR(C43:C47,B53:B57)/(C48*B58)</f>
         <v>0.86085902390323632</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="69">
         <f>COVAR(D43:D47,C53:C57)/(D48*C58)</f>
         <v>0.96998509619292128</v>
       </c>
@@ -7747,77 +7880,77 @@
         <v>0.90893666150541919</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A52" s="81" t="s">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="86" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="83">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="82">
         <v>1</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="83">
         <v>0.15</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="83">
         <v>0.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A54" s="83">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="82">
         <v>2</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="83">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="83">
         <v>0.26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A55" s="83">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="82">
         <v>3</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="83">
         <v>0.12</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="83">
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A56" s="83">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="82">
         <v>4</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="83">
         <v>0.115</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="83">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A57" s="83">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="82">
         <v>5</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="83">
         <v>0.109</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="83">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -7837,294 +7970,294 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="88" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="88"/>
+    <col min="1" max="1" width="32.5703125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="87" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="87">
         <v>0.1925</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="87">
         <v>0.17</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="87">
         <v>1.5</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="87">
         <v>0.14149999999999999</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="87">
         <v>0.08</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="87">
         <v>0.9</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="87">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="87">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="87">
         <v>0.05</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="87">
         <v>0.2</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="87">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="87">
         <v>0.1585</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="87">
         <v>0.11</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="87">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="88" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="87">
         <v>0.15</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="87">
         <v>0.1</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="87">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="87">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="88" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="87">
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="88" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="87">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="88" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="87">
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="87">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="87">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="88" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="87">
         <f>SUMPRODUCT(D2:D5,E2:E5)</f>
         <v>1.2730000000000001</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="88" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="89">
         <f>SUMPRODUCT(E2:E5,B10:B13)</f>
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="88" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="87">
         <f>SUMPRODUCT(B2:B5,E2:E5)</f>
         <v>0.173205</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="88" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="88" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="88" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="88" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="88">
+      <c r="B27" s="87">
         <f>E2-0.2</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="88" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="87">
         <f>E3+0.2</f>
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="88" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="87">
         <f>E4+0.2</f>
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="88" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="87">
         <f>E5-0.2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="88" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="87">
         <f>SUMPRODUCT(B27:B30,D2:D5)</f>
         <v>0.97300000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="88" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="88" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="89">
+      <c r="B35" s="88">
         <f>SUMPRODUCT(B27:B30,B10:B13)</f>
         <v>0.13430000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="88" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="88">
         <f>B35-B18</f>
         <v>1.2000000000000025E-2</v>
       </c>
